--- a/data/trans_dic/CONS_ANS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>19,75%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,16</t>
+          <t>5,09; 10,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 20,32</t>
+          <t>6,11; 12,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,08</t>
+          <t>4,1; 8,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,79</t>
+          <t>5,63; 19,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 13,97</t>
+          <t>9,93; 15,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,0; 34,81</t>
+          <t>15,76; 23,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 21,16</t>
+          <t>9,41; 15,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,46</t>
+          <t>19,7; 37,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,86</t>
+          <t>8,29; 12,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,72; 25,48</t>
+          <t>12,84; 18,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,86; 16,61</t>
+          <t>7,61; 11,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,34</t>
+          <t>14,84; 26,48</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,22</t>
+          <t>3,46; 5,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,03</t>
+          <t>2,18; 5,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,01</t>
+          <t>3,98; 6,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,82</t>
+          <t>5,22; 8,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 10,73</t>
+          <t>6,61; 8,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,37</t>
+          <t>3,76; 7,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 7,59</t>
+          <t>7,55; 10,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,06</t>
+          <t>10,72; 15,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 8,0</t>
+          <t>5,24; 6,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,33</t>
+          <t>3,55; 6,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 5,91</t>
+          <t>6,11; 7,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,17</t>
+          <t>8,27; 11,56</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>5,33%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>6,53%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>6,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,4</t>
+          <t>2,83; 5,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,51</t>
+          <t>2,09; 5,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,82</t>
+          <t>1,77; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,8</t>
+          <t>3,61; 7,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,33</t>
+          <t>2,82; 5,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 8,85</t>
+          <t>2,21; 5,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,6</t>
+          <t>2,82; 6,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,15</t>
+          <t>4,85; 8,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,45</t>
+          <t>3,11; 5,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,59</t>
+          <t>2,44; 4,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,8</t>
+          <t>2,74; 4,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,05</t>
+          <t>4,76; 7,65</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>9,98%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 6,07</t>
+          <t>3,91; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 8,69</t>
+          <t>2,98; 5,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,29</t>
+          <t>3,81; 5,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 4,98</t>
+          <t>5,8; 8,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 9,76</t>
+          <t>6,58; 8,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 14,77</t>
+          <t>5,49; 9,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 9,55</t>
+          <t>7,19; 9,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 7,57</t>
+          <t>10,7; 14,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,52</t>
+          <t>5,56; 6,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,24</t>
+          <t>4,8; 7,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,22</t>
+          <t>5,78; 7,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,11</t>
+          <t>8,77; 11,28</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de ansiolíticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6537</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20637</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12890</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10949</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15567</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>74410</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32666</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32031</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22105</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>95047</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>45557</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>42981</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4480; 9066</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13912; 29007</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8839; 17526</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5548; 19461</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12685; 19270</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62132; 93512</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25741; 41189</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23459; 44169</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17887; 26423</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>79830; 113921</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37243; 54290</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32291; 57636</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19477</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56025</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43032</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24811</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32914</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>83780</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77233</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44940</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52391</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>139805</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>120265</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>69751</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15675; 23778</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30722; 78008</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>34328; 52943</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18618; 32083</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28545; 38218</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52134; 107752</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>65571; 91362</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37937; 54807</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46407; 59405</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>99141; 175342</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>105822; 138038</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>58770; 82135</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15176</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10742</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11934</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7396</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15266</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17841</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18441</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13688</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30441</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28583</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30375</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4288; 9001</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9622; 23797</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6714; 15564</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8084; 17477</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5478; 10543</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9810; 22678</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11769; 26178</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13698; 25035</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10743; 17283</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22003; 42211</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21788; 38896</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24089; 38709</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>32307</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>91838</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>66664</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47694</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55877</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>173456</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>127740</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>95413</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>88184</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>265293</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>194404</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>143107</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27110; 38211</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>62455; 114316</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55478; 78153</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>39422; 59935</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>49605; 62682</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>122029; 205265</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>112130; 143646</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80820; 111603</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>80492; 97527</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>207202; 306712</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>174428; 216213</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>125750; 161834</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos</t>
+          <t>Consumo de ansiolíticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos</t>
+          <t>Consumo de ansiolíticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 10,29</t>
+          <t>4,72; 9,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 12,73</t>
+          <t>6,13; 13,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 19,75</t>
+          <t>5,94; 20,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 15,09</t>
+          <t>10,1; 15,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,76; 23,73</t>
+          <t>15,83; 23,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,7; 37,09</t>
+          <t>19,35; 36,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,24</t>
+          <t>8,48; 12,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,32</t>
+          <t>13,03; 18,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,84; 26,48</t>
+          <t>14,97; 26,12</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,24</t>
+          <t>3,23; 4,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,53</t>
+          <t>2,22; 5,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,99</t>
+          <t>5,2; 9,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 8,85</t>
+          <t>6,24; 8,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,78</t>
+          <t>3,53; 7,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,49</t>
+          <t>10,23; 15,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,71</t>
+          <t>4,9; 6,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,27</t>
+          <t>3,62; 6,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 11,56</t>
+          <t>8,31; 11,45</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,94</t>
+          <t>2,73; 5,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,18</t>
+          <t>2,05; 5,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,8</t>
+          <t>3,58; 7,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,43</t>
+          <t>2,71; 4,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,11</t>
+          <t>2,02; 4,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,87</t>
+          <t>4,76; 8,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,0</t>
+          <t>2,99; 4,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,67</t>
+          <t>2,45; 4,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,65</t>
+          <t>4,64; 7,59</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,51</t>
+          <t>3,61; 4,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,45</t>
+          <t>2,85; 5,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,82</t>
+          <t>5,55; 8,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,32</t>
+          <t>6,35; 7,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,23</t>
+          <t>5,57; 9,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,78</t>
+          <t>10,94; 14,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 6,74</t>
+          <t>5,24; 6,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,1</t>
+          <t>4,87; 7,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,28</t>
+          <t>8,72; 11,48</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6537</t>
+          <t>5454</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15567</t>
+          <t>15171</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22105</t>
+          <t>20625</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4480; 9066</t>
+          <t>3892; 7506</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13912; 29007</t>
+          <t>13959; 29888</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5548; 19461</t>
+          <t>5859; 20225</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12685; 19270</t>
+          <t>12262; 18789</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62132; 93512</t>
+          <t>62387; 91839</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23459; 44169</t>
+          <t>23037; 43361</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17887; 26423</t>
+          <t>17296; 24530</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>79830; 113921</t>
+          <t>81020; 117975</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32291; 57636</t>
+          <t>32590; 56840</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19477</t>
+          <t>17911</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32914</t>
+          <t>32260</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52391</t>
+          <t>50171</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15675; 23778</t>
+          <t>14893; 21974</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30722; 78008</t>
+          <t>31293; 77297</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18618; 32083</t>
+          <t>18569; 32476</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28545; 38218</t>
+          <t>27739; 37182</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52134; 107752</t>
+          <t>48959; 108526</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37937; 54807</t>
+          <t>36213; 54162</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46407; 59405</t>
+          <t>44414; 57182</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>99141; 175342</t>
+          <t>101172; 174434</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58770; 82135</t>
+          <t>59071; 81362</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6292</t>
+          <t>6895</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7396</t>
+          <t>8523</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13688</t>
+          <t>15418</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4288; 9001</t>
+          <t>4797; 9966</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9622; 23797</t>
+          <t>9411; 25052</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8084; 17477</t>
+          <t>8027; 17026</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5478; 10543</t>
+          <t>6185; 11187</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9810; 22678</t>
+          <t>8950; 22014</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13698; 25035</t>
+          <t>13426; 24157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10743; 17283</t>
+          <t>12078; 19336</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22003; 42211</t>
+          <t>22089; 42391</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>24089; 38709</t>
+          <t>23503; 38437</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32307</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55877</t>
+          <t>55954</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88184</t>
+          <t>86214</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27110; 38211</t>
+          <t>26016; 35483</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>62455; 114316</t>
+          <t>59772; 113875</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39422; 59935</t>
+          <t>37738; 58419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49605; 62682</t>
+          <t>50434; 62423</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>122029; 205265</t>
+          <t>123877; 205616</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>80820; 111603</t>
+          <t>82645; 110406</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80492; 97527</t>
+          <t>79290; 94224</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>207202; 306712</t>
+          <t>210277; 306447</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>125750; 161834</t>
+          <t>125102; 164686</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/CONS_ANS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Estudios-trans_dic.xlsx
@@ -569,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -657,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,61%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,06%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,11%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>12,49%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,88%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>11,94%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>26,9%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,31%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>10,11%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>15,28%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>9,31%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>19,75%</t>
         </is>
       </c>
     </row>
@@ -725,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6,08; 12,85</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 20,52</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 8,12</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>4,72; 9,09</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 13,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 8,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 20,52</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>15,41; 21,36</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 36,41</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 15,05</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>10,1; 15,47</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>15,83; 23,3</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>9,41; 15,05</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>19,35; 36,41</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>12,46; 17,32</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14,97; 26,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 11,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>8,48; 12,02</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>13,03; 18,97</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 11,09</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>14,97; 26,12</t>
         </is>
       </c>
     </row>
@@ -797,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3,88%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,99%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>6,95%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,26%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,7%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>5,54%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,95%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -865,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,47; 5,99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 9,1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 6,14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>3,23; 4,76</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 5,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 6,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,2; 9,1</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>6,04; 8,61</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 15,3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 10,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>6,24; 8,37</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 7,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 10,51</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>10,23; 15,3</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>5,06; 6,79</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 11,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 7,97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>4,9; 6,31</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 6,24</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 7,97</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>8,31; 11,45</t>
         </is>
       </c>
     </row>
@@ -937,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,93%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,33%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>3,74%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>3,82%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -1005,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,84; 4,95</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 7,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 4,11</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2,73; 5,68</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 5,45</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 4,11</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 7,6</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,13; 4,93</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 8,56</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 6,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>2,71; 4,91</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 4,97</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 6,28</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,76; 8,56</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>2,39; 4,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,64; 7,59</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 4,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>2,99; 4,79</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 4,69</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 4,89</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 7,59</t>
         </is>
       </c>
     </row>
@@ -1077,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>4,2%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,38%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,58%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,02%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>7,05%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,8%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,19%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>12,63%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>5,7%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>9,98%</t>
         </is>
       </c>
     </row>
@@ -1145,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,93; 5,72</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5,55; 8,6</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 5,37</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>3,61; 4,93</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 5,43</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 5,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 8,6</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,56; 9,63</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 14,62</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 9,21</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>6,35; 7,86</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 9,25</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>7,19; 9,21</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10,94; 14,62</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>6,03; 7,45</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 11,48</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 7,17</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>5,24; 6,23</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 7,09</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 7,17</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>8,72; 11,48</t>
         </is>
       </c>
     </row>
@@ -1296,62 +1296,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1384,62 +1384,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>126</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
         </is>
       </c>
     </row>
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>22669</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10949</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12890</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>5454</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>20637</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12890</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10949</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>78457</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32031</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32666</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>15171</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>74410</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>32666</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>32031</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>101126</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>42981</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>45557</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>20625</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>95047</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>45557</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>42981</t>
         </is>
       </c>
     </row>
@@ -1520,62 +1520,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>15486; 32750</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5859; 20225</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8839; 17526</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3892; 7506</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13959; 29888</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8839; 17526</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5859; 20225</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>66523; 92174</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23037; 43361</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25741; 41189</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>12262; 18789</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>62387; 91839</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>25741; 41189</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>23037; 43361</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>85514; 118916</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32590; 56840</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37243; 54290</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>17296; 24530</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>81020; 117975</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>37243; 54290</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>32590; 56840</t>
         </is>
       </c>
     </row>
@@ -1592,62 +1592,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>301</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>156</t>
         </is>
       </c>
     </row>
@@ -1660,62 +1660,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>59174</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24811</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43032</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>17911</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>56025</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>43032</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>24811</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>92439</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44940</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77233</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>32260</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>83780</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>77233</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>44940</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>151613</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>69751</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>120265</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>50171</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>139805</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>120265</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>69751</t>
         </is>
       </c>
     </row>
@@ -1728,62 +1728,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>44729; 77121</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18569; 32476</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>34328; 52943</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>14893; 21974</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>31293; 77297</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>34328; 52943</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>18569; 32476</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>76804; 109441</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>36213; 54162</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>65571; 91362</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>27739; 37182</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>48959; 108526</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>65571; 91362</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>36213; 54162</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>129508; 173793</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>59071; 81362</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>105822; 138038</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>44414; 57182</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>101172; 174434</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>105822; 138038</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>59071; 81362</t>
         </is>
       </c>
     </row>
@@ -1800,62 +1800,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>82</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
         </is>
       </c>
     </row>
@@ -1868,62 +1868,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>15234</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11934</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10742</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>6895</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>15176</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>10742</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11934</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>17562</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18441</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17841</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>8523</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>15266</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>17841</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>18441</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>32796</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30375</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28583</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>15418</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>30441</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>28583</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>30375</t>
         </is>
       </c>
     </row>
@@ -1936,62 +1936,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9396; 25249</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8027; 17026</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6714; 15564</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>4797; 9966</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9411; 25052</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6714; 15564</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8027; 17026</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>10560; 24458</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13426; 24157</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11769; 26178</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>6185; 11187</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8950; 22014</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>11769; 26178</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>13426; 24157</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>24055; 45400</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23503; 38437</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21788; 38896</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>12078; 19336</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>22089; 42391</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>21788; 38896</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>23503; 38437</t>
         </is>
       </c>
     </row>
@@ -2008,62 +2008,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>331</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>509</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>389</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>407</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>327</t>
         </is>
       </c>
     </row>
@@ -2076,62 +2076,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>97077</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47694</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>66664</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>30260</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>91838</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>66664</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>47694</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>188458</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>95413</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>127740</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>55954</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>173456</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>127740</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>95413</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>285535</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>143107</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>194404</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>86214</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>265293</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>194404</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>143107</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>80583; 117326</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>37738; 58419</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55478; 78153</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>26016; 35483</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>59772; 113875</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>55478; 78153</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>37738; 58419</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>166177; 211767</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>82645; 110406</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>112130; 143646</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>50434; 62423</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>123877; 205616</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>112130; 143646</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>82645; 110406</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>256343; 316737</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>125102; 164686</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>174428; 216213</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>79290; 94224</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>210277; 306447</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>174428; 216213</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>125102; 164686</t>
         </is>
       </c>
     </row>
